--- a/03.バック設計/CODA_API一覧.xlsx
+++ b/03.バック設計/CODA_API一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/03.バック設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D99EE-55B8-B046-97AE-2D0ABC9D263C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E5EDDE-2711-BA42-852D-377D8AE10FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31840" yWindow="6020" windowWidth="31720" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="-34240" yWindow="3800" windowWidth="31720" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="API一覧(CODA管理)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C005</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メモ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -326,10 +322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>譜面削除</t>
     <rPh sb="0" eb="4">
       <t>フメn</t>
@@ -366,6 +358,57 @@
   </si>
   <si>
     <t>/user_accounts/delete/{user_account_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーアカウント認証</t>
+    <rPh sb="0" eb="4">
+      <t>ユーザーアカウント</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/user_accounts/check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー名及びパスワードが正しいか確認する</t>
+    <rPh sb="5" eb="6">
+      <t>オヨビ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タダセィ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ユーザー名
+・パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・認証結果</t>
+    <rPh sb="1" eb="5">
+      <t>ニンショウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -449,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,6 +507,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B311B770-0CBB-714E-AE4F-85B9602A9323}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -790,7 +836,7 @@
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="31.7109375" customWidth="1"/>
@@ -825,7 +871,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -887,7 +933,7 @@
         <v>27</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -904,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
@@ -920,7 +966,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="42">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -928,31 +974,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -961,30 +1007,28 @@
         <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -993,25 +1037,57 @@
         <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/03.バック設計/CODA_API一覧.xlsx
+++ b/03.バック設計/CODA_API一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/03.バック設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E5EDDE-2711-BA42-852D-377D8AE10FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866ED9F0-68D4-E448-9D3A-BF422D30FFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34240" yWindow="3800" windowWidth="31720" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="-35980" yWindow="7920" windowWidth="31720" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="API一覧(CODA管理)" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -343,13 +343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・譜面ID</t>
-    <rPh sb="1" eb="2">
-      <t>フメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>論理削除で実装</t>
     <rPh sb="0" eb="4">
       <t>ロンリ</t>
@@ -408,6 +401,21 @@
     <t>・認証結果</t>
     <rPh sb="1" eb="5">
       <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・譜面名
+・ユーザーID</t>
+    <rPh sb="1" eb="2">
+      <t>フメn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -827,7 +835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B311B770-0CBB-714E-AE4F-85B9602A9323}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -950,7 +960,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
@@ -977,28 +987,28 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1028,7 +1038,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1058,9 +1068,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="42">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -1075,19 +1085,19 @@
         <v>43</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>44</v>
+      <c r="H8" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
